--- a/evaluation_brief_startup.xlsx
+++ b/evaluation_brief_startup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barba\Desktop\Rivka\formation2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pontiff\Desktop\SIMPLON_DEV_IA_DOCUMENTS_THIBAUT_PERNET\SIMPLON_BPI_EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{698057C7-8E2C-469C-A1D4-F115B9F40D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63474C3C-9ED1-437F-AB7D-7D1B2D56C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -131,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +204,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +244,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -429,10 +451,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -483,13 +507,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -805,10 +834,10 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" customWidth="1"/>
@@ -818,21 +847,21 @@
     <col min="6" max="6" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5">
+    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="19.5">
+    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="26.1">
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -840,7 +869,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="42.6" thickBot="1">
+    <row r="5" spans="1:12" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -858,118 +887,118 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="42">
+    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="21">
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="42">
+    <row r="8" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="21">
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="42">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="42">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="42">
+    <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="42">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="21">
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="42">
+    <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:12" ht="42">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="84.6" thickBot="1">
+    <row r="17" spans="2:6" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:6" ht="21.6" thickBot="1">
+    <row r="18" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="42">
+    <row r="19" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
@@ -986,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="42">
+    <row r="20" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
@@ -995,7 +1024,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="2:6" ht="21">
+    <row r="21" spans="2:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1033,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:6" ht="42">
+    <row r="22" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1042,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="2:6" ht="42">
+    <row r="23" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1051,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="42">
+    <row r="24" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1060,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:6" ht="42">
+    <row r="25" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1069,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="2:6" ht="21">
+    <row r="26" spans="2:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1078,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:6" ht="42">
+    <row r="27" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1087,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="2:6" ht="42">
+    <row r="28" spans="2:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
@@ -1067,7 +1096,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="2:6" ht="42">
+    <row r="29" spans="2:6" ht="42" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
@@ -1076,11 +1105,11 @@
       <c r="E29" s="6"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="2:6" ht="45.75" customHeight="1" thickBot="1">
+    <row r="30" spans="2:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
@@ -1095,9 +1124,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1324,22 +1356,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A63245-F1C1-4681-B668-737D677A4ADB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4E1C3F-2323-40C5-A6C3-2B20EDBB305B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99A7022-ED20-4F48-9380-28043814F6A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99A7022-ED20-4F48-9380-28043814F6A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1b7a162a-45e6-4e94-995d-70a0e6c9f55a"/>
+    <ds:schemaRef ds:uri="04663f65-10e6-4a64-b50f-e16882439188"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4E1C3F-2323-40C5-A6C3-2B20EDBB305B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A63245-F1C1-4681-B668-737D677A4ADB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>